--- a/example_output_PSL.xlsx
+++ b/example_output_PSL.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t># tStarts - Comma-separated list of start position of each block in target.</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t xml:space="preserve">mis- </t>
+  </si>
+  <si>
+    <t>sum of blockSizes = match+mis-match</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1355,17 +1358,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>

--- a/example_output_PSL.xlsx
+++ b/example_output_PSL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -623,12 +623,16 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="19" max="19" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="60.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
